--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel40/field_100ha_100ha_6%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel40/field_100ha_100ha_6%_12m_0_LM/Planilha_Unificada.xlsx
@@ -1652,28 +1652,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>83.78869824941937</v>
+        <v>95.89904751707681</v>
       </c>
       <c r="AB2" t="n">
-        <v>114.6433934412904</v>
+        <v>131.2133075801938</v>
       </c>
       <c r="AC2" t="n">
-        <v>103.7019888742965</v>
+        <v>118.6904936638088</v>
       </c>
       <c r="AD2" t="n">
-        <v>83788.69824941937</v>
+        <v>95899.0475170768</v>
       </c>
       <c r="AE2" t="n">
-        <v>114643.3934412904</v>
+        <v>131213.3075801938</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.778811692893131e-06</v>
+        <v>1.254257642256694e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.241666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>103701.9888742965</v>
+        <v>118690.4936638088</v>
       </c>
     </row>
     <row r="3">
@@ -1758,28 +1758,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>41.92422694680534</v>
+        <v>53.94923535989459</v>
       </c>
       <c r="AB3" t="n">
-        <v>57.36257687479536</v>
+        <v>73.81572389166897</v>
       </c>
       <c r="AC3" t="n">
-        <v>51.88797304686084</v>
+        <v>66.77085480448385</v>
       </c>
       <c r="AD3" t="n">
-        <v>41924.22694680534</v>
+        <v>53949.23535989459</v>
       </c>
       <c r="AE3" t="n">
-        <v>57362.57687479536</v>
+        <v>73815.72389166897</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.093491314809429e-05</v>
+        <v>2.023245224201966e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>2</v>
+        <v>1.389583333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>51887.97304686083</v>
+        <v>66770.85480448385</v>
       </c>
     </row>
   </sheetData>
@@ -2055,28 +2055,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>48.90337102852803</v>
+        <v>60.6670831612451</v>
       </c>
       <c r="AB2" t="n">
-        <v>66.91174970567329</v>
+        <v>83.00737962400034</v>
       </c>
       <c r="AC2" t="n">
-        <v>60.52578622500877</v>
+        <v>75.0852718142943</v>
       </c>
       <c r="AD2" t="n">
-        <v>48903.37102852802</v>
+        <v>60667.0831612451</v>
       </c>
       <c r="AE2" t="n">
-        <v>66911.74970567328</v>
+        <v>83007.37962400034</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.15060431574686e-06</v>
+        <v>1.744246406052645e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>2</v>
+        <v>1.717708333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>60525.78622500876</v>
+        <v>75085.2718142943</v>
       </c>
     </row>
     <row r="3">
@@ -2161,28 +2161,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>41.29170923239623</v>
+        <v>52.88482916452444</v>
       </c>
       <c r="AB3" t="n">
-        <v>56.49713823323285</v>
+        <v>72.35935637687707</v>
       </c>
       <c r="AC3" t="n">
-        <v>51.1051306545957</v>
+        <v>65.4534809612786</v>
       </c>
       <c r="AD3" t="n">
-        <v>41291.70923239623</v>
+        <v>52884.82916452444</v>
       </c>
       <c r="AE3" t="n">
-        <v>56497.13823323284</v>
+        <v>72359.35637687707</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.08230487698008e-05</v>
+        <v>2.063040130231742e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>2</v>
+        <v>1.452083333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>51105.1306545957</v>
+        <v>65453.4809612786</v>
       </c>
     </row>
   </sheetData>
@@ -2458,28 +2458,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>40.4193232771002</v>
+        <v>50.88276576829415</v>
       </c>
       <c r="AB2" t="n">
-        <v>55.30350128225054</v>
+        <v>69.62004491335277</v>
       </c>
       <c r="AC2" t="n">
-        <v>50.02541273893161</v>
+        <v>62.9756055391844</v>
       </c>
       <c r="AD2" t="n">
-        <v>40419.32327710021</v>
+        <v>50882.76576829415</v>
       </c>
       <c r="AE2" t="n">
-        <v>55303.50128225054</v>
+        <v>69620.04491335277</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.895665725234011e-06</v>
+        <v>2.10751782699916e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>2</v>
+        <v>1.772916666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>50025.41273893161</v>
+        <v>62975.6055391844</v>
       </c>
     </row>
   </sheetData>
@@ -2755,28 +2755,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>39.94067261460352</v>
+        <v>50.91246866080684</v>
       </c>
       <c r="AB2" t="n">
-        <v>54.64859032924885</v>
+        <v>69.66068572128776</v>
       </c>
       <c r="AC2" t="n">
-        <v>49.43300556810916</v>
+        <v>63.01236764544981</v>
       </c>
       <c r="AD2" t="n">
-        <v>39940.67261460352</v>
+        <v>50912.46866080684</v>
       </c>
       <c r="AE2" t="n">
-        <v>54648.59032924884</v>
+        <v>69660.68572128777</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.052885742290163e-05</v>
+        <v>2.137722072786877e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>2</v>
+        <v>1.59375</v>
       </c>
       <c r="AH2" t="n">
-        <v>49433.00556810916</v>
+        <v>63012.36764544981</v>
       </c>
     </row>
   </sheetData>
@@ -3052,28 +3052,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>52.50997754965778</v>
+        <v>62.47121450063055</v>
       </c>
       <c r="AB2" t="n">
-        <v>71.84646786013067</v>
+        <v>85.47587171520361</v>
       </c>
       <c r="AC2" t="n">
-        <v>64.98954180472674</v>
+        <v>77.31817448486431</v>
       </c>
       <c r="AD2" t="n">
-        <v>52509.97754965778</v>
+        <v>62471.21450063055</v>
       </c>
       <c r="AE2" t="n">
-        <v>71846.46786013067</v>
+        <v>85475.87171520361</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.975547081907497e-06</v>
+        <v>1.998679021128086e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.030208333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>64989.54180472674</v>
+        <v>77318.17448486431</v>
       </c>
     </row>
   </sheetData>
@@ -3349,28 +3349,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>53.34093619809156</v>
+        <v>65.21816652568324</v>
       </c>
       <c r="AB2" t="n">
-        <v>72.98342214222548</v>
+        <v>89.23437266284922</v>
       </c>
       <c r="AC2" t="n">
-        <v>66.01798676586414</v>
+        <v>80.71796937715703</v>
       </c>
       <c r="AD2" t="n">
-        <v>53340.93619809156</v>
+        <v>65218.16652568324</v>
       </c>
       <c r="AE2" t="n">
-        <v>72983.42214222548</v>
+        <v>89234.37266284923</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.516080984960741e-06</v>
+        <v>1.610189652541348e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>2</v>
+        <v>1.829166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>66017.98676586413</v>
+        <v>80717.96937715703</v>
       </c>
     </row>
     <row r="3">
@@ -3455,28 +3455,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>41.60939569048352</v>
+        <v>53.31603381748639</v>
       </c>
       <c r="AB3" t="n">
-        <v>56.93181086052316</v>
+        <v>72.94934960646601</v>
       </c>
       <c r="AC3" t="n">
-        <v>51.49831873640558</v>
+        <v>65.98716606509645</v>
       </c>
       <c r="AD3" t="n">
-        <v>41609.39569048352</v>
+        <v>53316.03381748639</v>
       </c>
       <c r="AE3" t="n">
-        <v>56931.81086052315</v>
+        <v>72949.34960646601</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.081286986618942e-05</v>
+        <v>2.044458149653753e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>2</v>
+        <v>1.440625</v>
       </c>
       <c r="AH3" t="n">
-        <v>51498.31873640558</v>
+        <v>65987.16606509645</v>
       </c>
     </row>
   </sheetData>
@@ -3752,28 +3752,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>54.33438811248168</v>
+        <v>64.04872575125974</v>
       </c>
       <c r="AB2" t="n">
-        <v>74.34270687949861</v>
+        <v>87.634292203198</v>
       </c>
       <c r="AC2" t="n">
-        <v>67.24754327558048</v>
+        <v>79.27059835084741</v>
       </c>
       <c r="AD2" t="n">
-        <v>54334.38811248168</v>
+        <v>64048.72575125974</v>
       </c>
       <c r="AE2" t="n">
-        <v>74342.70687949861</v>
+        <v>87634.292203198</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.275443891795033e-06</v>
+        <v>1.897200749279438e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.253125</v>
       </c>
       <c r="AH2" t="n">
-        <v>67247.54327558048</v>
+        <v>79270.5983508474</v>
       </c>
     </row>
   </sheetData>
@@ -4049,28 +4049,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>41.20996085969816</v>
+        <v>52.60525152635832</v>
       </c>
       <c r="AB2" t="n">
-        <v>56.38528650322423</v>
+        <v>71.97682591824349</v>
       </c>
       <c r="AC2" t="n">
-        <v>51.00395389671389</v>
+        <v>65.10745867273199</v>
       </c>
       <c r="AD2" t="n">
-        <v>41209.96085969816</v>
+        <v>52605.25152635833</v>
       </c>
       <c r="AE2" t="n">
-        <v>56385.28650322423</v>
+        <v>71976.82591824348</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.055292540544231e-05</v>
+        <v>2.06835879539324e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>2</v>
+        <v>1.534375</v>
       </c>
       <c r="AH2" t="n">
-        <v>51003.95389671389</v>
+        <v>65107.458672732</v>
       </c>
     </row>
     <row r="3">
@@ -4155,28 +4155,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>40.36296640790994</v>
+        <v>51.58766487397779</v>
       </c>
       <c r="AB3" t="n">
-        <v>55.2263913275352</v>
+        <v>70.58451896770241</v>
       </c>
       <c r="AC3" t="n">
-        <v>49.95566205006958</v>
+        <v>63.84803154343503</v>
       </c>
       <c r="AD3" t="n">
-        <v>40362.96640790995</v>
+        <v>51587.66487397779</v>
       </c>
       <c r="AE3" t="n">
-        <v>55226.3913275352</v>
+        <v>70584.5189677024</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.081492542471724e-05</v>
+        <v>2.119710437088824e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>2</v>
+        <v>1.497916666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>49955.66205006959</v>
+        <v>63848.03154343503</v>
       </c>
     </row>
   </sheetData>
@@ -4452,28 +4452,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>45.46769363392484</v>
+        <v>57.11357089992926</v>
       </c>
       <c r="AB2" t="n">
-        <v>62.21090432299027</v>
+        <v>78.14530737817375</v>
       </c>
       <c r="AC2" t="n">
-        <v>56.27358292796961</v>
+        <v>70.68722891964659</v>
       </c>
       <c r="AD2" t="n">
-        <v>45467.69363392484</v>
+        <v>57113.57089992925</v>
       </c>
       <c r="AE2" t="n">
-        <v>62210.90432299027</v>
+        <v>78145.30737817375</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.73280660698539e-06</v>
+        <v>1.871329725234295e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>2</v>
+        <v>1.630208333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>56273.5829279696</v>
+        <v>70687.22891964659</v>
       </c>
     </row>
     <row r="3">
@@ -4558,28 +4558,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>40.81000975744727</v>
+        <v>52.28529482286275</v>
       </c>
       <c r="AB3" t="n">
-        <v>55.83805576052985</v>
+        <v>71.53904704102752</v>
       </c>
       <c r="AC3" t="n">
-        <v>50.50895008805747</v>
+        <v>64.71146079713087</v>
       </c>
       <c r="AD3" t="n">
-        <v>40810.00975744727</v>
+        <v>52285.29482286274</v>
       </c>
       <c r="AE3" t="n">
-        <v>55838.05576052985</v>
+        <v>71539.04704102752</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.087435657812324e-05</v>
+        <v>2.090815889923668e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>2</v>
+        <v>1.459375</v>
       </c>
       <c r="AH3" t="n">
-        <v>50508.95008805747</v>
+        <v>64711.46079713087</v>
       </c>
     </row>
   </sheetData>
@@ -4855,28 +4855,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>76.3968098186285</v>
+        <v>88.40441391197729</v>
       </c>
       <c r="AB2" t="n">
-        <v>104.5294855831853</v>
+        <v>120.9588192418025</v>
       </c>
       <c r="AC2" t="n">
-        <v>94.55333818720698</v>
+        <v>109.4146793001655</v>
       </c>
       <c r="AD2" t="n">
-        <v>76396.80981862849</v>
+        <v>88404.41391197729</v>
       </c>
       <c r="AE2" t="n">
-        <v>104529.4855831853</v>
+        <v>120958.8192418025</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.349737680568977e-06</v>
+        <v>1.369200384757786e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.084375</v>
       </c>
       <c r="AH2" t="n">
-        <v>94553.33818720697</v>
+        <v>109414.6793001655</v>
       </c>
     </row>
     <row r="3">
@@ -4961,28 +4961,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>41.86887999940998</v>
+        <v>53.79114323819059</v>
       </c>
       <c r="AB3" t="n">
-        <v>57.2868487396344</v>
+        <v>73.59941527622151</v>
       </c>
       <c r="AC3" t="n">
-        <v>51.81947229863431</v>
+        <v>66.57519037970357</v>
       </c>
       <c r="AD3" t="n">
-        <v>41868.87999940998</v>
+        <v>53791.14323819058</v>
       </c>
       <c r="AE3" t="n">
-        <v>57286.8487396344</v>
+        <v>73599.41527622151</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.088630540065629e-05</v>
+        <v>2.028036127408489e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>2</v>
+        <v>1.407291666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>51819.47229863431</v>
+        <v>66575.19037970358</v>
       </c>
     </row>
   </sheetData>
@@ -5258,28 +5258,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>40.12945701159331</v>
+        <v>51.24994050070536</v>
       </c>
       <c r="AB2" t="n">
-        <v>54.90689346978881</v>
+        <v>70.12242958084349</v>
       </c>
       <c r="AC2" t="n">
-        <v>49.66665661944749</v>
+        <v>63.43004331911127</v>
       </c>
       <c r="AD2" t="n">
-        <v>40129.45701159331</v>
+        <v>51249.94050070536</v>
       </c>
       <c r="AE2" t="n">
-        <v>54906.8934697888</v>
+        <v>70122.42958084348</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.060994199483122e-05</v>
+        <v>2.126760066496445e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>2</v>
+        <v>1.561458333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>49666.65661944749</v>
+        <v>63430.04331911127</v>
       </c>
     </row>
     <row r="3">
@@ -5364,28 +5364,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>40.03970790762592</v>
+        <v>51.16019139673795</v>
       </c>
       <c r="AB3" t="n">
-        <v>54.7840947862902</v>
+        <v>69.99963089734432</v>
       </c>
       <c r="AC3" t="n">
-        <v>49.55557766995259</v>
+        <v>63.31896436961618</v>
       </c>
       <c r="AD3" t="n">
-        <v>40039.70790762592</v>
+        <v>51160.19139673795</v>
       </c>
       <c r="AE3" t="n">
-        <v>54784.0947862902</v>
+        <v>69999.63089734432</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.067023569905866e-05</v>
+        <v>2.138845923560937e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>2</v>
+        <v>1.553125</v>
       </c>
       <c r="AH3" t="n">
-        <v>49555.57766995259</v>
+        <v>63318.96436961618</v>
       </c>
     </row>
   </sheetData>
@@ -5661,28 +5661,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>40.10147269263763</v>
+        <v>50.74672169951269</v>
       </c>
       <c r="AB2" t="n">
-        <v>54.86860409001282</v>
+        <v>69.43390341660535</v>
       </c>
       <c r="AC2" t="n">
-        <v>49.63202152433773</v>
+        <v>62.80722912563525</v>
       </c>
       <c r="AD2" t="n">
-        <v>40101.47269263763</v>
+        <v>50746.72169951269</v>
       </c>
       <c r="AE2" t="n">
-        <v>54868.60409001281</v>
+        <v>69433.90341660535</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.017391775890887e-05</v>
+        <v>2.128447220726108e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>2</v>
+        <v>1.696875</v>
       </c>
       <c r="AH2" t="n">
-        <v>49632.02152433773</v>
+        <v>62807.22912563525</v>
       </c>
     </row>
   </sheetData>
@@ -9163,28 +9163,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>41.0771753378509</v>
+        <v>51.34256054074806</v>
       </c>
       <c r="AB2" t="n">
-        <v>56.2036034941499</v>
+        <v>70.24915640573762</v>
       </c>
       <c r="AC2" t="n">
-        <v>50.83961045903137</v>
+        <v>63.54467551369977</v>
       </c>
       <c r="AD2" t="n">
-        <v>41077.17533785089</v>
+        <v>51342.56054074806</v>
       </c>
       <c r="AE2" t="n">
-        <v>56203.60349414989</v>
+        <v>70249.15640573762</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.517500676169922e-06</v>
+        <v>2.068967375950821e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>2</v>
+        <v>1.876041666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>50839.61045903137</v>
+        <v>63544.67551369977</v>
       </c>
     </row>
   </sheetData>
@@ -9460,28 +9460,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>58.20145936213531</v>
+        <v>77.14087318964458</v>
       </c>
       <c r="AB2" t="n">
-        <v>79.63380436641499</v>
+        <v>105.5475459131682</v>
       </c>
       <c r="AC2" t="n">
-        <v>72.03366584444922</v>
+        <v>95.47423626815326</v>
       </c>
       <c r="AD2" t="n">
-        <v>58201.45936213531</v>
+        <v>77140.87318964458</v>
       </c>
       <c r="AE2" t="n">
-        <v>79633.80436641499</v>
+        <v>105547.5459131682</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.231767129533652e-06</v>
+        <v>1.72009531115156e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.65</v>
       </c>
       <c r="AH2" t="n">
-        <v>72033.66584444922</v>
+        <v>95474.23626815327</v>
       </c>
     </row>
   </sheetData>
@@ -9757,28 +9757,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>42.91742729556109</v>
+        <v>54.44068359671451</v>
       </c>
       <c r="AB2" t="n">
-        <v>58.72151740903244</v>
+        <v>74.48814505045166</v>
       </c>
       <c r="AC2" t="n">
-        <v>53.1172182036935</v>
+        <v>67.37910103162157</v>
       </c>
       <c r="AD2" t="n">
-        <v>42917.42729556109</v>
+        <v>54440.68359671451</v>
       </c>
       <c r="AE2" t="n">
-        <v>58721.51740903244</v>
+        <v>74488.14505045167</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.022295131570912e-05</v>
+        <v>1.983843641169279e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>2</v>
+        <v>1.567708333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>53117.2182036935</v>
+        <v>67379.10103162157</v>
       </c>
     </row>
     <row r="3">
@@ -9863,28 +9863,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>40.49810378740494</v>
+        <v>51.85076788796937</v>
       </c>
       <c r="AB3" t="n">
-        <v>55.41129225199978</v>
+        <v>70.94450811873129</v>
       </c>
       <c r="AC3" t="n">
-        <v>50.12291628981387</v>
+        <v>64.17366383513779</v>
       </c>
       <c r="AD3" t="n">
-        <v>40498.10378740494</v>
+        <v>51850.76788796937</v>
       </c>
       <c r="AE3" t="n">
-        <v>55411.29225199977</v>
+        <v>70944.50811873129</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.086951194167594e-05</v>
+        <v>2.109313786418203e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>2</v>
+        <v>1.475</v>
       </c>
       <c r="AH3" t="n">
-        <v>50122.91628981387</v>
+        <v>64173.66383513778</v>
       </c>
     </row>
   </sheetData>
@@ -10160,28 +10160,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>58.56772822962473</v>
+        <v>70.55455893374904</v>
       </c>
       <c r="AB2" t="n">
-        <v>80.13494958955579</v>
+        <v>96.53586018057875</v>
       </c>
       <c r="AC2" t="n">
-        <v>72.48698247085535</v>
+        <v>87.32261317389889</v>
       </c>
       <c r="AD2" t="n">
-        <v>58567.72822962473</v>
+        <v>70554.55893374904</v>
       </c>
       <c r="AE2" t="n">
-        <v>80134.94958955579</v>
+        <v>96535.86018057875</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.897061145941359e-06</v>
+        <v>1.481798416811136e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>2</v>
+        <v>1.95625</v>
       </c>
       <c r="AH2" t="n">
-        <v>72486.98247085535</v>
+        <v>87322.61317389889</v>
       </c>
     </row>
     <row r="3">
@@ -10266,28 +10266,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>41.97942175413986</v>
+        <v>53.79566025767541</v>
       </c>
       <c r="AB3" t="n">
-        <v>57.4380968452131</v>
+        <v>73.60559566155746</v>
       </c>
       <c r="AC3" t="n">
-        <v>51.95628549729508</v>
+        <v>66.5807809177373</v>
       </c>
       <c r="AD3" t="n">
-        <v>41979.42175413985</v>
+        <v>53795.66025767541</v>
       </c>
       <c r="AE3" t="n">
-        <v>57438.09684521311</v>
+        <v>73605.59566155745</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.078751007532515e-05</v>
+        <v>2.024160007823458e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>2</v>
+        <v>1.43125</v>
       </c>
       <c r="AH3" t="n">
-        <v>51956.28549729508</v>
+        <v>66580.7809177373</v>
       </c>
     </row>
   </sheetData>
@@ -10563,28 +10563,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>76.13405260201726</v>
+        <v>94.28384632789161</v>
       </c>
       <c r="AB2" t="n">
-        <v>104.1699695673878</v>
+        <v>129.0033180555043</v>
       </c>
       <c r="AC2" t="n">
-        <v>94.22813387537309</v>
+        <v>116.6914224376152</v>
       </c>
       <c r="AD2" t="n">
-        <v>76134.05260201727</v>
+        <v>94283.8463278916</v>
       </c>
       <c r="AE2" t="n">
-        <v>104169.9695673878</v>
+        <v>129003.3180555044</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.680256063443317e-06</v>
+        <v>1.420588934269934e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.49375</v>
       </c>
       <c r="AH2" t="n">
-        <v>94228.1338753731</v>
+        <v>116691.4224376152</v>
       </c>
     </row>
   </sheetData>
@@ -10860,28 +10860,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>39.91757790212911</v>
+        <v>50.73152487647501</v>
       </c>
       <c r="AB2" t="n">
-        <v>54.6169911247747</v>
+        <v>69.41311045288867</v>
       </c>
       <c r="AC2" t="n">
-        <v>49.40442214736018</v>
+        <v>62.78842061319259</v>
       </c>
       <c r="AD2" t="n">
-        <v>39917.57790212911</v>
+        <v>50731.52487647501</v>
       </c>
       <c r="AE2" t="n">
-        <v>54616.9911247747</v>
+        <v>69413.11045288868</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.038912975531714e-05</v>
+        <v>2.139416304937821e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>2</v>
+        <v>1.6375</v>
       </c>
       <c r="AH2" t="n">
-        <v>49404.42214736018</v>
+        <v>62788.42061319259</v>
       </c>
     </row>
   </sheetData>
@@ -11157,28 +11157,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>40.503824547669</v>
+        <v>51.76513187644561</v>
       </c>
       <c r="AB2" t="n">
-        <v>55.41911964857515</v>
+        <v>70.82733714977034</v>
       </c>
       <c r="AC2" t="n">
-        <v>50.12999665064594</v>
+        <v>64.06767549900395</v>
       </c>
       <c r="AD2" t="n">
-        <v>40503.824547669</v>
+        <v>51765.13187644561</v>
       </c>
       <c r="AE2" t="n">
-        <v>55419.11964857515</v>
+        <v>70827.33714977035</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.0631081264466e-05</v>
+        <v>2.106212929223213e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>2</v>
+        <v>1.540625</v>
       </c>
       <c r="AH2" t="n">
-        <v>50129.99665064595</v>
+        <v>64067.67549900396</v>
       </c>
     </row>
     <row r="3">
@@ -11263,28 +11263,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>40.12563030234269</v>
+        <v>51.38693763111925</v>
       </c>
       <c r="AB3" t="n">
-        <v>54.90165759736966</v>
+        <v>70.30987509856253</v>
       </c>
       <c r="AC3" t="n">
-        <v>49.66192045134341</v>
+        <v>63.59959929970069</v>
       </c>
       <c r="AD3" t="n">
-        <v>40125.63030234269</v>
+        <v>51386.93763111925</v>
       </c>
       <c r="AE3" t="n">
-        <v>54901.65759736965</v>
+        <v>70309.87509856252</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.076361995987173e-05</v>
+        <v>2.132471284976639e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>2</v>
+        <v>1.521875</v>
       </c>
       <c r="AH3" t="n">
-        <v>49661.92045134341</v>
+        <v>63599.59929970068</v>
       </c>
     </row>
   </sheetData>
